--- a/RUDN/Importance/Varible_f_reg_in_Melanesia.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Melanesia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>F-value</t>
   </si>
@@ -22,18 +22,39 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
@@ -43,9 +64,6 @@
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
@@ -58,13 +76,16 @@
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+    <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
@@ -73,6 +94,9 @@
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
@@ -85,10 +109,70 @@
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
     <t>Urban population (% of total)</t>
@@ -97,205 +181,451 @@
     <t>Rural population (% of total population)</t>
   </si>
   <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
+    <t>Improved water source (% of population with access)</t>
   </si>
   <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+    <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
+    <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
+    <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Net ODA received (% of GNI)</t>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male</t>
   </si>
   <si>
     <t>Population, male (% of total)</t>
@@ -304,252 +634,24 @@
     <t>Population, female (% of total)</t>
   </si>
   <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
     <t>Population, total</t>
   </si>
   <si>
     <t>Population, female</t>
   </si>
   <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
     <t>Female population 30-34</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
   </si>
   <si>
     <t>Male population 30-34</t>
   </si>
   <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
@@ -559,16 +661,28 @@
     <t>Labor force, total</t>
   </si>
   <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
@@ -577,51 +691,36 @@
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Male population 45-49</t>
   </si>
   <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
   </si>
   <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
@@ -634,42 +733,42 @@
     <t>Male population 55-59</t>
   </si>
   <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
     <t>Female population 65-69</t>
   </si>
   <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
     <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
     <t>Female population 75-79</t>
   </si>
   <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
@@ -679,22 +778,25 @@
     <t>Urban population</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
@@ -706,48 +808,39 @@
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Population ages 25-29, male (% of male population)</t>
+    <t>GDP (current US$)</t>
   </si>
   <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
+    <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -757,46 +850,34 @@
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+    <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
+    <t>Proportion of women in ministerial level positions (%)</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1173,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>288.588704152764</v>
+        <v>6139.296409904629</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1184,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>286.3061211050308</v>
+        <v>3385.748534985188</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1195,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>242.0072566244116</v>
+        <v>551.3761972742635</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1206,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>231.1732657439972</v>
+        <v>525.9422473560746</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1217,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>214.4761838814325</v>
+        <v>495.8816834192135</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1228,7 +1309,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>199.4679305989048</v>
+        <v>285.2511454346859</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1239,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>195.1554247631667</v>
+        <v>275.4735449153049</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1250,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>190.1071744297845</v>
+        <v>263.3505252138854</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1261,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>177.5046379039874</v>
+        <v>248.759100610546</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1272,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>166.5171930675931</v>
+        <v>232.5902592052834</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1283,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>166.5171930675931</v>
+        <v>224.4379595963072</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1294,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>160.2290445572431</v>
+        <v>203.0539344194036</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1305,7 +1386,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>154.8020951967221</v>
+        <v>188.1549499168443</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1316,7 +1397,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>154.8020951967221</v>
+        <v>185.6375604780339</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1327,7 +1408,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>153.6489346427081</v>
+        <v>170.891132925492</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1338,7 +1419,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>152.6871665342142</v>
+        <v>158.7277721985536</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1349,7 +1430,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>151.6727402914874</v>
+        <v>158.7277721985536</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1360,7 +1441,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>150.3024189916035</v>
+        <v>152.5918714203362</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1371,7 +1452,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>149.8824347591527</v>
+        <v>146.1602266370325</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1382,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>149.6581347842101</v>
+        <v>146.0980937437876</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1393,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>149.2692977064921</v>
+        <v>146.0980937437876</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1404,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>144.5490640378784</v>
+        <v>144.9953173014388</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1415,7 +1496,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>144.5490640378784</v>
+        <v>144.9914741079601</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1426,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>144.5324129937305</v>
+        <v>144.2051430984503</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1437,7 +1518,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>144.5324129937198</v>
+        <v>143.9019173903541</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1448,7 +1529,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>142.4558857615741</v>
+        <v>143.4038079795071</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1459,7 +1540,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>142.4558857615741</v>
+        <v>142.5068416330774</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1470,7 +1551,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>142.3836531692974</v>
+        <v>142.2912697183249</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1481,7 +1562,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>141.9999496173759</v>
+        <v>141.92105041826</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1492,7 +1573,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>141.3966338032994</v>
+        <v>140.380537219284</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1503,7 +1584,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>139.6780858469625</v>
+        <v>140.1640092159284</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1514,7 +1595,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>135.1968502347568</v>
+        <v>140.11923651378</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1525,7 +1606,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>133.9838800825384</v>
+        <v>139.8255331254443</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1536,7 +1617,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>130.954084056117</v>
+        <v>139.5468608601036</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1547,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>123.5177328352176</v>
+        <v>139.2146779300738</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1558,7 +1639,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>123.0683652422133</v>
+        <v>139.1524256546345</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1569,7 +1650,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>106.034571248025</v>
+        <v>138.9825388126731</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1580,7 +1661,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>105.1827897978358</v>
+        <v>138.8528620130216</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1591,7 +1672,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>103.8765044468642</v>
+        <v>138.7582206125503</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1602,7 +1683,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>103.8332529253459</v>
+        <v>138.6823879880203</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1613,7 +1694,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>93.91516922806672</v>
+        <v>138.627049361252</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1624,7 +1705,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>93.43336013914515</v>
+        <v>138.216868100244</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1635,7 +1716,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>93.30034982560545</v>
+        <v>138.0665730709456</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1646,7 +1727,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>92.39663156048948</v>
+        <v>137.8009058357782</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1657,7 +1738,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>92.36785101007601</v>
+        <v>137.3977102812325</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1668,7 +1749,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>88.67891782430149</v>
+        <v>137.3977102812325</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1679,7 +1760,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>88.40472119530851</v>
+        <v>137.3005360674976</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1690,7 +1771,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>88.26109948624027</v>
+        <v>136.8758532015748</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1701,7 +1782,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>88.09694660267996</v>
+        <v>136.8669350319623</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1712,7 +1793,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>87.81512610367339</v>
+        <v>136.841537324208</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1723,7 +1804,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>87.81512610367339</v>
+        <v>136.5930662007048</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1734,7 +1815,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>87.72600837548197</v>
+        <v>136.5116605723455</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1745,7 +1826,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>87.5014517555074</v>
+        <v>136.5116605723406</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1756,7 +1837,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>86.19378124852936</v>
+        <v>136.1548919253867</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1767,7 +1848,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>86.07242188217526</v>
+        <v>135.4921813333564</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1778,7 +1859,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>86.06140878829333</v>
+        <v>135.0092623322533</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1789,7 +1870,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>85.72681127544459</v>
+        <v>134.8930583061443</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1800,7 +1881,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>83.53400516351162</v>
+        <v>134.8930583061443</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1811,7 +1892,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>83.11799345581814</v>
+        <v>134.5346945878886</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1822,7 +1903,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>82.73573574497719</v>
+        <v>134.3637290682076</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1833,7 +1914,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>81.96012495430639</v>
+        <v>134.235088496513</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1844,7 +1925,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>81.30851845351768</v>
+        <v>133.7722637236248</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1855,7 +1936,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>81.07274556299029</v>
+        <v>133.4753402581052</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1866,7 +1947,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>80.59411240667342</v>
+        <v>132.8687605323664</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1877,7 +1958,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>79.59330811696492</v>
+        <v>132.7037828725736</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1888,7 +1969,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>76.30683660810368</v>
+        <v>130.4939544472876</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1899,7 +1980,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>76.25582624717654</v>
+        <v>129.9222787122435</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1910,7 +1991,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>76.06785763979411</v>
+        <v>128.5124345241348</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1921,7 +2002,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>74.62211581116843</v>
+        <v>128.1255036421908</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1932,7 +2013,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>71.31072306912873</v>
+        <v>126.8971713422961</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1943,7 +2024,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>70.91512249871066</v>
+        <v>126.5841114791238</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1954,7 +2035,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>70.25775006428694</v>
+        <v>120.7483577445397</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1965,7 +2046,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>69.63013370143614</v>
+        <v>120.560122730342</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1976,7 +2057,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>68.120184224864</v>
+        <v>119.5515180560302</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1987,7 +2068,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>67.34198298139816</v>
+        <v>117.0326165792214</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1998,7 +2079,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>66.71157533414609</v>
+        <v>116.8337294055386</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2009,7 +2090,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>64.98485546522471</v>
+        <v>116.2538244483755</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2020,7 +2101,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>63.46173671544366</v>
+        <v>116.0797590890681</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2031,7 +2112,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>63.34984000623913</v>
+        <v>110.5667958618974</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2042,7 +2123,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>63.33389762248445</v>
+        <v>107.1626901758558</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2053,7 +2134,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>63.26727618714126</v>
+        <v>106.657233636101</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2064,7 +2145,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>63.20362679025119</v>
+        <v>106.2265106891231</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2075,7 +2156,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>63.19065334547082</v>
+        <v>103.0048350697277</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2086,7 +2167,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>63.02695113878072</v>
+        <v>103.0048350697277</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2097,7 +2178,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>62.97629465726489</v>
+        <v>101.5580862764492</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2108,7 +2189,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>62.76774690780901</v>
+        <v>100.9504167929265</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2119,7 +2200,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>62.73599551748733</v>
+        <v>98.84200778851259</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2130,7 +2211,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>62.42943440537945</v>
+        <v>98.75012222821586</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2141,7 +2222,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>62.18342137769911</v>
+        <v>94.7566065709003</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2152,7 +2233,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>62.12178454413031</v>
+        <v>92.7074168827049</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2163,7 +2244,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>62.02775654313491</v>
+        <v>88.26630504330048</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2174,7 +2255,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>62.00533789943005</v>
+        <v>87.35119558446574</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2185,7 +2266,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>60.91203613908022</v>
+        <v>87.13051776366177</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2196,7 +2277,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>60.91203612995538</v>
+        <v>86.81003699349846</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2207,7 +2288,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>60.82234776421161</v>
+        <v>86.0833047539992</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2218,7 +2299,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>60.79711361024717</v>
+        <v>83.36528162687469</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2229,7 +2310,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>60.79405649332053</v>
+        <v>82.43863880608583</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2240,7 +2321,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>60.56433974502444</v>
+        <v>82.22483640900663</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2251,7 +2332,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>60.53985677270038</v>
+        <v>82.22483640900663</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2262,7 +2343,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>60.49031724286833</v>
+        <v>81.59007605047711</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2273,7 +2354,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>60.27529406388989</v>
+        <v>78.90867368177089</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2284,7 +2365,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>60.27191602056088</v>
+        <v>77.59874457337901</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2295,7 +2376,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>60.26584951188053</v>
+        <v>77.48752992271928</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2306,7 +2387,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>60.25640352929449</v>
+        <v>76.48870564984981</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2317,7 +2398,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>60.01170633151416</v>
+        <v>74.18358776647088</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2328,7 +2409,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>60.01148765002873</v>
+        <v>73.86176084898942</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2339,7 +2420,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>59.70260804733597</v>
+        <v>68.33713893873795</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2350,7 +2431,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>59.68260314817152</v>
+        <v>67.96754228597327</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2361,7 +2442,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>59.47424345526659</v>
+        <v>67.00972149881333</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2372,7 +2453,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>59.35092988424182</v>
+        <v>66.33235829761438</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2383,7 +2464,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>59.30789706617559</v>
+        <v>63.80580724887538</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2394,7 +2475,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>58.99066105126855</v>
+        <v>63.42461063525128</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2405,7 +2486,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>58.92542429381928</v>
+        <v>63.42271729332422</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2416,7 +2497,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>58.74623464688248</v>
+        <v>63.33530008894535</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2427,7 +2508,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>58.71529413839866</v>
+        <v>61.98377966311803</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2438,7 +2519,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>58.68206765942936</v>
+        <v>61.48821659833734</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2449,7 +2530,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>58.64069339670971</v>
+        <v>60.45261107659189</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2460,7 +2541,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>58.62616309741895</v>
+        <v>59.12365578588304</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2471,7 +2552,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>58.55647613096583</v>
+        <v>59.12365578588304</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2482,7 +2563,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>58.53928526962584</v>
+        <v>58.97780975331603</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2493,7 +2574,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>58.43058660664738</v>
+        <v>58.89959876011738</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2504,7 +2585,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>58.29246708955706</v>
+        <v>58.40786885437991</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2515,7 +2596,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>58.25880048927967</v>
+        <v>58.16639856866311</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2526,7 +2607,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>58.25438582638061</v>
+        <v>57.85514659404959</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2537,7 +2618,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>58.22930519033578</v>
+        <v>57.68145162897419</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2548,7 +2629,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>58.15366017911933</v>
+        <v>57.47118309408193</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2559,7 +2640,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>58.06256841786404</v>
+        <v>57.16518513807252</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2570,7 +2651,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>57.96745082527456</v>
+        <v>56.77211241358253</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2581,7 +2662,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>57.9435168663338</v>
+        <v>56.30573346096007</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2592,7 +2673,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>57.94146548816795</v>
+        <v>55.8236069288575</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2603,7 +2684,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>57.89212671033812</v>
+        <v>55.7988721988797</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2614,7 +2695,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>57.88676364212508</v>
+        <v>55.56949102159086</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2625,7 +2706,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>57.81628607110449</v>
+        <v>55.54910528511534</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2636,7 +2717,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>57.78139596905852</v>
+        <v>55.31108712070106</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2647,7 +2728,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>57.76766042120453</v>
+        <v>55.30590910874042</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2658,7 +2739,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>57.69676735067979</v>
+        <v>55.29429428365604</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2669,7 +2750,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>57.66057991359195</v>
+        <v>55.28351810012604</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2680,7 +2761,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>57.57344472348889</v>
+        <v>55.05845845449853</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2691,7 +2772,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>57.5149682801536</v>
+        <v>55.053334549555</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2702,7 +2783,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>57.39831431940028</v>
+        <v>54.77850837110584</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2713,7 +2794,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>57.3887458850608</v>
+        <v>54.75334411096354</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2724,7 +2805,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>57.26999171368491</v>
+        <v>54.46460071486256</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2735,7 +2816,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>57.24570809961757</v>
+        <v>54.41650386997048</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2746,7 +2827,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>57.22740172313786</v>
+        <v>54.14641245407768</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2757,7 +2838,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>57.15687460169621</v>
+        <v>54.07616235495466</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2768,7 +2849,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>57.03378413166554</v>
+        <v>53.96872023495001</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2779,7 +2860,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>56.95321989900135</v>
+        <v>53.93548070237558</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2790,7 +2871,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>56.88631645391833</v>
+        <v>53.89986467068825</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2801,7 +2882,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>56.8298910514034</v>
+        <v>53.85086228337616</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2812,7 +2893,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>56.82108101902274</v>
+        <v>53.82800662606247</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2823,7 +2904,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>56.78303490427098</v>
+        <v>53.77956292343</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2834,7 +2915,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>56.71867756243898</v>
+        <v>53.77956292343</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2845,7 +2926,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>56.53865510515368</v>
+        <v>53.7618859348358</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2856,7 +2937,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>56.53823705940784</v>
+        <v>53.73623360953817</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2867,7 +2948,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>56.44846931543542</v>
+        <v>53.73209462831746</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2878,7 +2959,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>56.44400665008045</v>
+        <v>53.7083298364136</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2889,7 +2970,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>56.37810525323219</v>
+        <v>53.67800012407157</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2900,7 +2981,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>56.32685203858105</v>
+        <v>53.61996723871334</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2911,7 +2992,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>56.2901038945371</v>
+        <v>53.61996723871334</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2922,7 +3003,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>56.23994471326996</v>
+        <v>53.61211129074962</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2933,7 +3014,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>56.22981159141327</v>
+        <v>53.51683515403151</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2944,7 +3025,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>56.20609362779346</v>
+        <v>53.50898779245581</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -2955,7 +3036,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>56.18620198389493</v>
+        <v>53.45449841812007</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2966,7 +3047,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>56.12211293200485</v>
+        <v>53.43978148277803</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2977,7 +3058,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>56.09753137712013</v>
+        <v>53.41550308992132</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2988,7 +3069,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>56.09346365897436</v>
+        <v>53.3989315674276</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2999,7 +3080,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>56.0792708739739</v>
+        <v>53.39692796688773</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3010,7 +3091,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>55.7062395401523</v>
+        <v>53.34955032615971</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3021,7 +3102,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>55.6345842555066</v>
+        <v>53.30253896121432</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3032,7 +3113,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>55.56045616213893</v>
+        <v>53.23754504761954</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3043,7 +3124,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>55.12536883636252</v>
+        <v>53.18670337709484</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3054,7 +3135,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>54.73272871210096</v>
+        <v>53.10514938740614</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3065,7 +3146,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>54.46254854745464</v>
+        <v>53.07729419562356</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3076,7 +3157,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>54.46254854745464</v>
+        <v>53.06268502811398</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3087,7 +3168,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>54.44969713648835</v>
+        <v>52.96249691327316</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3098,7 +3179,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>54.27888690938386</v>
+        <v>52.86651181425395</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3109,7 +3190,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>54.22552399037274</v>
+        <v>52.73522516275082</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3120,7 +3201,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>54.17362163888253</v>
+        <v>52.72456864818324</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3131,7 +3212,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>54.08805903503274</v>
+        <v>52.71986639526821</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3142,7 +3223,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>53.26508504610027</v>
+        <v>52.61820670599531</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3153,7 +3234,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>52.446423347088</v>
+        <v>52.5615579967635</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3164,7 +3245,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>52.20932562673904</v>
+        <v>52.43230003841551</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3175,7 +3256,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>52.12267922091515</v>
+        <v>52.35268612198445</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3186,7 +3267,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>51.98718483583581</v>
+        <v>52.33003342489625</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3197,7 +3278,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>51.82336732385238</v>
+        <v>52.2869764396341</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3208,7 +3289,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>51.53566500836577</v>
+        <v>52.25914425537839</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3219,7 +3300,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>51.52010155002011</v>
+        <v>52.24110630691121</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3230,7 +3311,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>51.39188496567051</v>
+        <v>52.16760362210277</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3241,7 +3322,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>51.32467685464233</v>
+        <v>52.11269102131538</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3252,7 +3333,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>51.28449065521738</v>
+        <v>52.08162840450398</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3263,7 +3344,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>51.28449065521738</v>
+        <v>52.05194592318123</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3274,7 +3355,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>51.04474358998776</v>
+        <v>51.99636948425095</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3285,7 +3366,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>50.72906311757873</v>
+        <v>51.96289071178042</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3296,7 +3377,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>50.67406916937848</v>
+        <v>51.95141872480637</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3307,7 +3388,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>50.59068370641381</v>
+        <v>51.86640781307268</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3318,7 +3399,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>50.23447810936809</v>
+        <v>51.85661650355426</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3329,7 +3410,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>49.74699970105452</v>
+        <v>51.79351570456667</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3340,7 +3421,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>49.71698579075999</v>
+        <v>51.78676284274771</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3351,7 +3432,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>49.26584392600004</v>
+        <v>51.78336775453493</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3362,7 +3443,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>49.1085741800569</v>
+        <v>51.76427043560125</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3373,7 +3454,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>47.86015418634078</v>
+        <v>51.72505786693648</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3384,7 +3465,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>47.752077425879</v>
+        <v>51.35802918253176</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3395,7 +3476,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>47.54671309777741</v>
+        <v>51.32175699866348</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3406,7 +3487,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>47.53699146500458</v>
+        <v>51.32175699777598</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3417,7 +3498,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>47.13458024724344</v>
+        <v>51.28996105845042</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3428,7 +3509,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>47.12924770631341</v>
+        <v>51.2195548344814</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3439,7 +3520,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>46.59035710699007</v>
+        <v>50.34521156589405</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3450,7 +3531,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>45.73679924723254</v>
+        <v>50.2952677993618</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3461,7 +3542,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>45.5109663298587</v>
+        <v>50.13557362261114</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3472,7 +3553,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>45.01738213957502</v>
+        <v>50.09361476722916</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3483,7 +3564,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>44.72079601834621</v>
+        <v>50.09201433658661</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3494,7 +3575,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>44.27111744234491</v>
+        <v>50.04958617555707</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3505,7 +3586,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>44.24388965047367</v>
+        <v>49.93218538252425</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3516,7 +3597,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>44.16742374065456</v>
+        <v>48.88926199252301</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3527,7 +3608,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>44.08423471342368</v>
+        <v>48.43810859474125</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3538,7 +3619,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>42.4876568040808</v>
+        <v>48.12674336934857</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3549,7 +3630,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>42.15057995046312</v>
+        <v>48.07846430406287</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3560,7 +3641,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>41.15878048531199</v>
+        <v>47.78959427503473</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3571,7 +3652,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>39.92976233439995</v>
+        <v>47.70275357559152</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3582,7 +3663,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>39.50187534365323</v>
+        <v>47.58539721032871</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3593,7 +3674,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>36.81866903471867</v>
+        <v>47.54528832182095</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3604,7 +3685,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>36.81617849312768</v>
+        <v>47.51577972412588</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3615,7 +3696,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>36.25908643207476</v>
+        <v>47.3822932685546</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3626,7 +3707,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>36.25908643207476</v>
+        <v>47.26813995368362</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -3637,7 +3718,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>35.86167019502041</v>
+        <v>47.21684408314643</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -3648,7 +3729,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>35.71163974067313</v>
+        <v>46.59500367670947</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -3659,7 +3740,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>35.68774951972163</v>
+        <v>46.47033711047629</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -3670,7 +3751,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>35.67855665706556</v>
+        <v>46.32940246954981</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -3681,7 +3762,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>35.64354473320242</v>
+        <v>46.24370229971981</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -3692,7 +3773,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>35.57862369732574</v>
+        <v>46.20288351467092</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -3703,7 +3784,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>35.29621554006854</v>
+        <v>46.04272471392446</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -3714,7 +3795,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>34.58893616624688</v>
+        <v>45.73226370079839</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -3725,7 +3806,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>31.80724980303314</v>
+        <v>45.36250896722083</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -3736,7 +3817,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>31.74253239470806</v>
+        <v>44.77020963332925</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -3747,7 +3828,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>30.80895748757605</v>
+        <v>44.21954960215597</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -3758,7 +3839,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>29.21233609275824</v>
+        <v>44.11790420585992</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -3769,7 +3850,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>28.59135375609781</v>
+        <v>44.06879993584921</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3780,7 +3861,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>27.15865569604001</v>
+        <v>43.96300475518885</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -3791,7 +3872,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>25.69783646641921</v>
+        <v>43.86321409207929</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3802,10 +3883,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>24.26732933965969</v>
+        <v>43.51211672631653</v>
       </c>
       <c r="C241">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3813,10 +3894,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>22.95044749484977</v>
+        <v>42.15941639540447</v>
       </c>
       <c r="C242">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3824,10 +3905,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>21.81808656822469</v>
+        <v>41.4075867312821</v>
       </c>
       <c r="C243">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3835,10 +3916,10 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>20.82013676396926</v>
+        <v>41.1863553813308</v>
       </c>
       <c r="C244">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3846,10 +3927,10 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>20.41701708805797</v>
+        <v>41.11600338396261</v>
       </c>
       <c r="C245">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3857,10 +3938,10 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>16.43711894407501</v>
+        <v>41.02051879425066</v>
       </c>
       <c r="C246">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3868,10 +3949,10 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>12.67765343043862</v>
+        <v>40.94352486130106</v>
       </c>
       <c r="C247">
-        <v>0.00068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3879,10 +3960,10 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>12.21667380545766</v>
+        <v>40.65229747536767</v>
       </c>
       <c r="C248">
-        <v>0.00084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3890,10 +3971,10 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>11.49669694620581</v>
+        <v>39.40784451242119</v>
       </c>
       <c r="C249">
-        <v>0.00116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3901,10 +3982,10 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>10.49653578756599</v>
+        <v>39.38045990937434</v>
       </c>
       <c r="C250">
-        <v>0.00185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3912,10 +3993,10 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>10.12467202305948</v>
+        <v>39.35861839640572</v>
       </c>
       <c r="C251">
-        <v>0.00221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3923,10 +4004,10 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>10.11763319473356</v>
+        <v>38.31343026221994</v>
       </c>
       <c r="C252">
-        <v>0.00221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3934,10 +4015,10 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>9.526252071798432</v>
+        <v>36.55412868726133</v>
       </c>
       <c r="C253">
-        <v>0.00293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3945,10 +4026,10 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>9.208697422206541</v>
+        <v>36.45652445307085</v>
       </c>
       <c r="C254">
-        <v>0.00341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3956,10 +4037,10 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>9.176584888945614</v>
+        <v>36.45652445307085</v>
       </c>
       <c r="C255">
-        <v>0.00346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3967,10 +4048,10 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>9.064930818189591</v>
+        <v>35.81708092259424</v>
       </c>
       <c r="C256">
-        <v>0.00365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3978,10 +4059,10 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>8.71319407480075</v>
+        <v>34.23978028211462</v>
       </c>
       <c r="C257">
-        <v>0.00433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3989,10 +4070,10 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>8.673113779262646</v>
+        <v>33.54802477159636</v>
       </c>
       <c r="C258">
-        <v>0.00442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4000,10 +4081,10 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>8.630343713066212</v>
+        <v>33.23447658561336</v>
       </c>
       <c r="C259">
-        <v>0.00451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4011,10 +4092,307 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>8.044687138725269</v>
+        <v>32.53586318992271</v>
       </c>
       <c r="C260">
-        <v>0.00601</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>32.23222596991965</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>32.21076532196913</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>32.20224326409008</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>32.07279862585025</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>31.9053587688357</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>31.82931699609146</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>31.20318545890916</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>31.10327741816452</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>29.77997939235195</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>28.84374756985659</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>28.29603091000881</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>25.89183204475129</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>24.09742796116893</v>
+      </c>
+      <c r="C273">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>21.20246112429991</v>
+      </c>
+      <c r="C274">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>18.92239821934679</v>
+      </c>
+      <c r="C275">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>18.4197827860027</v>
+      </c>
+      <c r="C276">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>15.48707133227616</v>
+      </c>
+      <c r="C277">
+        <v>0.00021</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>12.62907449872406</v>
+      </c>
+      <c r="C278">
+        <v>0.00073</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>12.40451477472091</v>
+      </c>
+      <c r="C279">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>11.54500000985248</v>
+      </c>
+      <c r="C280">
+        <v>0.00118</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>11.26915679542429</v>
+      </c>
+      <c r="C281">
+        <v>0.00134</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>9.644069675430524</v>
+      </c>
+      <c r="C282">
+        <v>0.00285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>9.399522230965367</v>
+      </c>
+      <c r="C283">
+        <v>0.00319</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>9.358207744480678</v>
+      </c>
+      <c r="C284">
+        <v>0.00326</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>9.340233971619455</v>
+      </c>
+      <c r="C285">
+        <v>0.00329</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>9.293671200940565</v>
+      </c>
+      <c r="C286">
+        <v>0.00336</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>8.311588566306348</v>
+      </c>
+      <c r="C287">
+        <v>0.00538</v>
       </c>
     </row>
   </sheetData>
